--- a/data/trans_orig/P23_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P23_R-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>151612</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>132542</v>
+        <v>131768</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>171847</v>
+        <v>174316</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3200069207157943</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2797570726335213</v>
+        <v>0.2781225095542482</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3627177537402206</v>
+        <v>0.3679289209916073</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>89</v>
@@ -764,19 +764,19 @@
         <v>92274</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>76208</v>
+        <v>77043</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>107231</v>
+        <v>108521</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3008816452867391</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2484928275073687</v>
+        <v>0.251214898696446</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3496509968516086</v>
+        <v>0.3538567800747</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>237</v>
@@ -785,19 +785,19 @@
         <v>243886</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>216727</v>
+        <v>215667</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>269716</v>
+        <v>269656</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3124916467707695</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2776921188379761</v>
+        <v>0.276333972507638</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3455871996330235</v>
+        <v>0.3455106002822922</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>322164</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>301929</v>
+        <v>299460</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>341234</v>
+        <v>342008</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6799930792842057</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6372822462597797</v>
+        <v>0.6320710790083927</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7202429273664789</v>
+        <v>0.7218774904457519</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>209</v>
@@ -835,19 +835,19 @@
         <v>214406</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>199449</v>
+        <v>198159</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>230472</v>
+        <v>229637</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.699118354713261</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6503490031483921</v>
+        <v>0.6461432199253001</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7515071724926314</v>
+        <v>0.7487851013035542</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>516</v>
@@ -856,19 +856,19 @@
         <v>536571</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>510741</v>
+        <v>510801</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>563730</v>
+        <v>564790</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6875083532292305</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6544128003669761</v>
+        <v>0.6544893997177078</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.722307881162023</v>
+        <v>0.7236660274923621</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>135168</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>117621</v>
+        <v>116667</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>155358</v>
+        <v>155372</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3683722487832518</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3205512159269548</v>
+        <v>0.317951431076705</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4233956234822858</v>
+        <v>0.4234321016931409</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>131</v>
@@ -981,19 +981,19 @@
         <v>133000</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>114210</v>
+        <v>113852</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>151693</v>
+        <v>151417</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3576555403716888</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3071272861546262</v>
+        <v>0.3061661433318675</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4079249403113461</v>
+        <v>0.4071829558108575</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>259</v>
@@ -1002,19 +1002,19 @@
         <v>268168</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>241215</v>
+        <v>242989</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>295960</v>
+        <v>297752</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3629781330585568</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3264955372355853</v>
+        <v>0.3288972330642069</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4005966883202671</v>
+        <v>0.4030212708408853</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>231766</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>211576</v>
+        <v>211562</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>249313</v>
+        <v>250267</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6316277512167482</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5766043765177146</v>
+        <v>0.5765678983068593</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6794487840730452</v>
+        <v>0.682048568923295</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>232</v>
@@ -1052,19 +1052,19 @@
         <v>238865</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>220172</v>
+        <v>220448</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>257655</v>
+        <v>258013</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6423444596283112</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5920750596886539</v>
+        <v>0.5928170441891425</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6928727138453739</v>
+        <v>0.6938338566681325</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>454</v>
@@ -1073,19 +1073,19 @@
         <v>470631</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>442839</v>
+        <v>441047</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>497584</v>
+        <v>495810</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6370218669414431</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5994033116797327</v>
+        <v>0.5969787291591148</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6735044627644147</v>
+        <v>0.6711027669357932</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>255021</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>233468</v>
+        <v>232979</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>278480</v>
+        <v>280601</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4701816003292693</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4304433914144726</v>
+        <v>0.4295423184599276</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5134323545139765</v>
+        <v>0.5173429582533688</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>46</v>
@@ -1198,19 +1198,19 @@
         <v>46203</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35205</v>
+        <v>34787</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>58685</v>
+        <v>58750</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2753755297664133</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.209826300954621</v>
+        <v>0.2073334779378845</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3497684810210311</v>
+        <v>0.3501547008346676</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>296</v>
@@ -1219,19 +1219,19 @@
         <v>301224</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>276623</v>
+        <v>276156</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>330112</v>
+        <v>329532</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4241575666190955</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.389516258940367</v>
+        <v>0.3888585463452872</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4648342640135241</v>
+        <v>0.4640180155679096</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>287368</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>263909</v>
+        <v>261788</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>308921</v>
+        <v>309410</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5298183996707307</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4865676454860235</v>
+        <v>0.4826570417466312</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5695566085855274</v>
+        <v>0.5704576815400727</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>118</v>
@@ -1269,19 +1269,19 @@
         <v>121579</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>109097</v>
+        <v>109032</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>132577</v>
+        <v>132995</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7246244702335867</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6502315189789689</v>
+        <v>0.6498452991653323</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7901736990453789</v>
+        <v>0.7926665220621155</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>400</v>
@@ -1290,19 +1290,19 @@
         <v>408947</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>380059</v>
+        <v>380639</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>433548</v>
+        <v>434015</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5758424333809046</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.535165735986476</v>
+        <v>0.5359819844320907</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.610483741059633</v>
+        <v>0.611141453654713</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>564678</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>532840</v>
+        <v>529517</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>598199</v>
+        <v>599281</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4559983236535645</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4302873945979126</v>
+        <v>0.4276041035097792</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.483067829616937</v>
+        <v>0.4839414691557994</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>234</v>
@@ -1415,19 +1415,19 @@
         <v>241095</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>217566</v>
+        <v>213761</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>268120</v>
+        <v>264688</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3375340294770608</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3045929444750987</v>
+        <v>0.2992655646657738</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3753679292969767</v>
+        <v>0.3705634407690495</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>785</v>
@@ -1436,19 +1436,19 @@
         <v>805774</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>756436</v>
+        <v>764568</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>849670</v>
+        <v>852123</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4126630514783532</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3873953390762931</v>
+        <v>0.3915602590387425</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4351436263044814</v>
+        <v>0.4363995728730456</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>673656</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>640135</v>
+        <v>639053</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>705494</v>
+        <v>708817</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5440016763464355</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5169321703830629</v>
+        <v>0.5160585308442004</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5697126054020872</v>
+        <v>0.5723958964902208</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>460</v>
@@ -1486,19 +1486,19 @@
         <v>473190</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>446165</v>
+        <v>449597</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>496719</v>
+        <v>500524</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6624659705229392</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6246320707030234</v>
+        <v>0.6294365592309505</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6954070555249013</v>
+        <v>0.7007344353342262</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1133</v>
@@ -1507,19 +1507,19 @@
         <v>1146846</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1102950</v>
+        <v>1100497</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1196184</v>
+        <v>1188052</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5873369485216468</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5648563736955186</v>
+        <v>0.5636004271269541</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6126046609237067</v>
+        <v>0.6084397409612572</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>187624</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>167387</v>
+        <v>170104</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>205396</v>
+        <v>206506</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5352199036225471</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.477492478409879</v>
+        <v>0.4852414156138551</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5859158166663385</v>
+        <v>0.5890832460044175</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>172</v>
@@ -1632,19 +1632,19 @@
         <v>180513</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>157392</v>
+        <v>160212</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>204993</v>
+        <v>205043</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3173851681212198</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2767320435505664</v>
+        <v>0.2816899007596823</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3604266253713918</v>
+        <v>0.3605135914894679</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>353</v>
@@ -1653,19 +1653,19 @@
         <v>368138</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>336348</v>
+        <v>337046</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>399261</v>
+        <v>399297</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4004511137374208</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3658710134156873</v>
+        <v>0.3666308402781223</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4343060622113785</v>
+        <v>0.4343457049338139</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>162931</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>145159</v>
+        <v>144049</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>183168</v>
+        <v>180451</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4647800963774529</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4140841833336618</v>
+        <v>0.4109167539955825</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.522507521590121</v>
+        <v>0.514758584386145</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>367</v>
@@ -1703,19 +1703,19 @@
         <v>388239</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>363759</v>
+        <v>363709</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>411360</v>
+        <v>408540</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6826148318787801</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6395733746286082</v>
+        <v>0.6394864085105318</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7232679564494335</v>
+        <v>0.7183100992403176</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>526</v>
@@ -1724,19 +1724,19 @@
         <v>551169</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>520046</v>
+        <v>520010</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>582959</v>
+        <v>582261</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5995488862625792</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5656939377886215</v>
+        <v>0.5656542950661859</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6341289865843127</v>
+        <v>0.6333691597218777</v>
       </c>
     </row>
     <row r="18">
@@ -1828,19 +1828,19 @@
         <v>87705</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>73196</v>
+        <v>72959</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>103094</v>
+        <v>103210</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2951469906806458</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2463209447480177</v>
+        <v>0.2455210348521045</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3469324937435335</v>
+        <v>0.3473224357260427</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>172</v>
@@ -1849,19 +1849,19 @@
         <v>169171</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>147498</v>
+        <v>146276</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>193719</v>
+        <v>192698</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1354710966183041</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1181152112854433</v>
+        <v>0.1171371911687219</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1551293852729328</v>
+        <v>0.1543115203999539</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>260</v>
@@ -1870,19 +1870,19 @@
         <v>256876</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>229503</v>
+        <v>230917</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>285912</v>
+        <v>286397</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1661641923101587</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1484576904806436</v>
+        <v>0.1493721753942174</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1849463244414936</v>
+        <v>0.1852602846681294</v>
       </c>
     </row>
     <row r="20">
@@ -1899,19 +1899,19 @@
         <v>209453</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>194064</v>
+        <v>193948</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>223962</v>
+        <v>224199</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7048530093193542</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6530675062564666</v>
+        <v>0.6526775642739574</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7536790552519823</v>
+        <v>0.7544789651478956</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1066</v>
@@ -1920,19 +1920,19 @@
         <v>1079589</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1055041</v>
+        <v>1056062</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1101262</v>
+        <v>1102484</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8645289033816959</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8448706147270671</v>
+        <v>0.8456884796000462</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8818847887145564</v>
+        <v>0.8828628088312788</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1283</v>
@@ -1941,19 +1941,19 @@
         <v>1289042</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1260006</v>
+        <v>1259521</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1316415</v>
+        <v>1315001</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8338358076898412</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8150536755585065</v>
+        <v>0.8147397153318706</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8515423095193565</v>
+        <v>0.8506278246057826</v>
       </c>
     </row>
     <row r="21">
@@ -2045,19 +2045,19 @@
         <v>1381810</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1319660</v>
+        <v>1326859</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1437812</v>
+        <v>1440738</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4226818665743196</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4036710043129542</v>
+        <v>0.4058730625850749</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4398123876626533</v>
+        <v>0.4407075710335079</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>844</v>
@@ -2066,19 +2066,19 @@
         <v>862257</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>814920</v>
+        <v>814024</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>916205</v>
+        <v>914213</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2552472576786265</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2412346291449561</v>
+        <v>0.2409692107123431</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2712171295892088</v>
+        <v>0.2706275663859452</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2190</v>
@@ -2087,19 +2087,19 @@
         <v>2244066</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2170548</v>
+        <v>2169840</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2326473</v>
+        <v>2322497</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3375920889204727</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3265321113881745</v>
+        <v>0.3264256923655918</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3499891597380353</v>
+        <v>0.3493909936183638</v>
       </c>
     </row>
     <row r="23">
@@ -2116,19 +2116,19 @@
         <v>1887338</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1831336</v>
+        <v>1828410</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1949488</v>
+        <v>1942289</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5773181334256804</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5601876123373467</v>
+        <v>0.559292428966492</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5963289956870459</v>
+        <v>0.5941269374149251</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2452</v>
@@ -2137,19 +2137,19 @@
         <v>2515867</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2461919</v>
+        <v>2463911</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2563204</v>
+        <v>2564100</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7447527423213735</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7287828704107916</v>
+        <v>0.7293724336140548</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7587653708550443</v>
+        <v>0.7590307892876569</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4312</v>
@@ -2158,19 +2158,19 @@
         <v>4403206</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4320799</v>
+        <v>4324775</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4476724</v>
+        <v>4477432</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6624079110795273</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6500108402619649</v>
+        <v>0.6506090063816365</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6734678886118256</v>
+        <v>0.6735743076344087</v>
       </c>
     </row>
     <row r="24">
@@ -2504,19 +2504,19 @@
         <v>148306</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>128716</v>
+        <v>129392</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>170746</v>
+        <v>171056</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3392093845807295</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2944023245168789</v>
+        <v>0.2959476200066674</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3905345460828248</v>
+        <v>0.3912445024546695</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>90</v>
@@ -2525,19 +2525,19 @@
         <v>98879</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>82047</v>
+        <v>82573</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>116645</v>
+        <v>116414</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3144471010718391</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2609174952515923</v>
+        <v>0.2625900896671485</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3709461120463157</v>
+        <v>0.370211420364812</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>228</v>
@@ -2546,19 +2546,19 @@
         <v>247185</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>219468</v>
+        <v>219923</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>274379</v>
+        <v>275968</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3288502418174797</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2919761790877446</v>
+        <v>0.2925815696263421</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3650285878845088</v>
+        <v>0.3671421494474754</v>
       </c>
     </row>
     <row r="5">
@@ -2575,19 +2575,19 @@
         <v>288905</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>266465</v>
+        <v>266155</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>308495</v>
+        <v>307819</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6607906154192705</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6094654539171753</v>
+        <v>0.6087554975453305</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7055976754831214</v>
+        <v>0.7040523799933326</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>193</v>
@@ -2596,19 +2596,19 @@
         <v>215575</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>197809</v>
+        <v>198040</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>232407</v>
+        <v>231881</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.685552898928161</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6290538879536842</v>
+        <v>0.6297885796351879</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7390825047484076</v>
+        <v>0.73740991033285</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>459</v>
@@ -2617,19 +2617,19 @@
         <v>504480</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>477286</v>
+        <v>475697</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>532197</v>
+        <v>531742</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6711497581825202</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6349714121154912</v>
+        <v>0.6328578505525245</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7080238209122554</v>
+        <v>0.7074184303736578</v>
       </c>
     </row>
     <row r="6">
@@ -2721,19 +2721,19 @@
         <v>150476</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>131129</v>
+        <v>129905</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>171573</v>
+        <v>173443</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3593050813603927</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3131097968618377</v>
+        <v>0.3101863326817906</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4096794937184638</v>
+        <v>0.4141449271848643</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>110</v>
@@ -2742,19 +2742,19 @@
         <v>125697</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>109380</v>
+        <v>107620</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>146041</v>
+        <v>147084</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3718726002187287</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3236002761740845</v>
+        <v>0.3183922492045853</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4320599180979917</v>
+        <v>0.4351449025702813</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>245</v>
@@ -2763,19 +2763,19 @@
         <v>276173</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>249178</v>
+        <v>244244</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>303615</v>
+        <v>303289</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3649180777071576</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3292480556441703</v>
+        <v>0.3227295467865771</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4011785872375484</v>
+        <v>0.400747993469516</v>
       </c>
     </row>
     <row r="8">
@@ -2792,19 +2792,19 @@
         <v>268321</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>247224</v>
+        <v>245354</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>287668</v>
+        <v>288892</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6406949186396073</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5903205062815363</v>
+        <v>0.5858550728151359</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6868902031381623</v>
+        <v>0.6898136673182097</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>195</v>
@@ -2813,19 +2813,19 @@
         <v>212314</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>191970</v>
+        <v>190927</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>228631</v>
+        <v>230391</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6281273997812713</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5679400819020084</v>
+        <v>0.5648550974297187</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6763997238259155</v>
+        <v>0.6816077507954149</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>435</v>
@@ -2834,19 +2834,19 @@
         <v>480635</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>453193</v>
+        <v>453519</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>507630</v>
+        <v>512564</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6350819222928424</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5988214127624516</v>
+        <v>0.599252006530484</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6707519443558297</v>
+        <v>0.6772704532134228</v>
       </c>
     </row>
     <row r="9">
@@ -2938,19 +2938,19 @@
         <v>272892</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>248621</v>
+        <v>246992</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>298568</v>
+        <v>299578</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4335643083143444</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3950038378397922</v>
+        <v>0.3924158798658927</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4743572700310168</v>
+        <v>0.4759631535183921</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>81</v>
@@ -2959,19 +2959,19 @@
         <v>85248</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>69792</v>
+        <v>71292</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>100347</v>
+        <v>100942</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3277148450769273</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2682957438031939</v>
+        <v>0.2740652244103816</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3857603345632585</v>
+        <v>0.3880464396601521</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>337</v>
@@ -2980,19 +2980,19 @@
         <v>358140</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>328938</v>
+        <v>329897</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>386711</v>
+        <v>391747</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.40261074917861</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3697832642393089</v>
+        <v>0.370860989345185</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4347294210406218</v>
+        <v>0.4403905252506922</v>
       </c>
     </row>
     <row r="11">
@@ -3009,19 +3009,19 @@
         <v>356523</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>330847</v>
+        <v>329837</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>380794</v>
+        <v>382423</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5664356916856556</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5256427299689829</v>
+        <v>0.5240368464816079</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6049961621602078</v>
+        <v>0.6075841201341073</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>163</v>
@@ -3030,19 +3030,19 @@
         <v>174881</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>159782</v>
+        <v>159187</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>190337</v>
+        <v>188837</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6722851549230726</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6142396654367414</v>
+        <v>0.6119535603398479</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.731704256196806</v>
+        <v>0.7259347755896184</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>498</v>
@@ -3051,19 +3051,19 @@
         <v>531404</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>502833</v>
+        <v>497797</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>560606</v>
+        <v>559647</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5973892508213899</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.565270578959378</v>
+        <v>0.5596094747493074</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6302167357606909</v>
+        <v>0.6291390106548149</v>
       </c>
     </row>
     <row r="12">
@@ -3155,19 +3155,19 @@
         <v>499391</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>466083</v>
+        <v>464833</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>534165</v>
+        <v>534886</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4312603540712399</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.402497015510025</v>
+        <v>0.4014174147100943</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4612905654347186</v>
+        <v>0.4619132212200314</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>263</v>
@@ -3176,19 +3176,19 @@
         <v>285870</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>254857</v>
+        <v>258149</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>312617</v>
+        <v>314293</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3733640416756003</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3328592886982508</v>
+        <v>0.3371584090021725</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4082972072057823</v>
+        <v>0.4104860576652797</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>728</v>
@@ -3197,19 +3197,19 @@
         <v>785261</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>740223</v>
+        <v>742094</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>830627</v>
+        <v>830599</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4082160490550181</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3848030851650281</v>
+        <v>0.385775843940132</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4317993940975122</v>
+        <v>0.4317849078221165</v>
       </c>
     </row>
     <row r="14">
@@ -3226,19 +3226,19 @@
         <v>658589</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>623815</v>
+        <v>623094</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>691897</v>
+        <v>693147</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5687396459287601</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5387094345652815</v>
+        <v>0.5380867787799686</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5975029844899753</v>
+        <v>0.5985825852899057</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>447</v>
@@ -3247,19 +3247,19 @@
         <v>479791</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>453044</v>
+        <v>451368</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>510804</v>
+        <v>507512</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6266359583243997</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5917027927942176</v>
+        <v>0.5895139423347203</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6671407113017491</v>
+        <v>0.6628415909978275</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1064</v>
@@ -3268,19 +3268,19 @@
         <v>1138380</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1093014</v>
+        <v>1093042</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1183418</v>
+        <v>1181547</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5917839509449819</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5682006059024878</v>
+        <v>0.5682150921778831</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6151969148349717</v>
+        <v>0.614224156059868</v>
       </c>
     </row>
     <row r="15">
@@ -3372,19 +3372,19 @@
         <v>218470</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>193278</v>
+        <v>197069</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>240635</v>
+        <v>242054</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4278726777136584</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3785343754304032</v>
+        <v>0.3859587826079753</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.471282736864429</v>
+        <v>0.4740611388480962</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>197</v>
@@ -3393,19 +3393,19 @@
         <v>215446</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>190334</v>
+        <v>191761</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>242217</v>
+        <v>243308</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2832814539372531</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2502632002144468</v>
+        <v>0.2521395328102596</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3184823897683594</v>
+        <v>0.3199169754886113</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>408</v>
@@ -3414,19 +3414,19 @@
         <v>433916</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>402487</v>
+        <v>399518</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>469123</v>
+        <v>469002</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3413617628278542</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3166367648464951</v>
+        <v>0.3143008170827586</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.369059454661704</v>
+        <v>0.368964382682359</v>
       </c>
     </row>
     <row r="17">
@@ -3443,19 +3443,19 @@
         <v>292126</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>269961</v>
+        <v>268542</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>317318</v>
+        <v>313527</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5721273222863416</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5287172631355709</v>
+        <v>0.5259388611519038</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6214656245695968</v>
+        <v>0.6140412173920247</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>505</v>
@@ -3464,19 +3464,19 @@
         <v>545090</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>518319</v>
+        <v>517228</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>570202</v>
+        <v>568775</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7167185460627469</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6815176102316406</v>
+        <v>0.6800830245113888</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7497367997855532</v>
+        <v>0.7478604671897404</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>781</v>
@@ -3485,19 +3485,19 @@
         <v>837216</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>802009</v>
+        <v>802130</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>868645</v>
+        <v>871614</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6586382371721458</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.630940545338296</v>
+        <v>0.6310356173176408</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6833632351535049</v>
+        <v>0.6856991829172412</v>
       </c>
     </row>
     <row r="18">
@@ -3589,19 +3589,19 @@
         <v>63492</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>50772</v>
+        <v>51349</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>78177</v>
+        <v>77512</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2379012516830907</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1902408476431998</v>
+        <v>0.1924048358638014</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2929280480436786</v>
+        <v>0.2904359264028661</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>156</v>
@@ -3610,19 +3610,19 @@
         <v>164190</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>142792</v>
+        <v>140578</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>188999</v>
+        <v>188236</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1480057998806865</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1287163478121235</v>
+        <v>0.1267205486955752</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1703694309186586</v>
+        <v>0.1696812237590085</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>220</v>
@@ -3631,19 +3631,19 @@
         <v>227682</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>199784</v>
+        <v>200946</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>254970</v>
+        <v>257452</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1654385079779199</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1451670718703582</v>
+        <v>0.1460116225430917</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1852664125604426</v>
+        <v>0.1870700379940367</v>
       </c>
     </row>
     <row r="20">
@@ -3660,19 +3660,19 @@
         <v>203390</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>188705</v>
+        <v>189370</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>216110</v>
+        <v>215533</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7620987483169093</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7070719519563213</v>
+        <v>0.7095640735971337</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8097591523568002</v>
+        <v>0.8075951641361987</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>888</v>
@@ -3681,19 +3681,19 @@
         <v>945161</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>920352</v>
+        <v>921115</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>966559</v>
+        <v>968773</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8519942001193135</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8296305690813414</v>
+        <v>0.8303187762409917</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8712836521878765</v>
+        <v>0.873279451304425</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1089</v>
@@ -3702,19 +3702,19 @@
         <v>1148551</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1121263</v>
+        <v>1118781</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1176449</v>
+        <v>1175287</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8345614920220802</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8147335874395575</v>
+        <v>0.8129299620059636</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8548329281296418</v>
+        <v>0.8539883774569084</v>
       </c>
     </row>
     <row r="21">
@@ -3806,19 +3806,19 @@
         <v>1353026</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1296059</v>
+        <v>1292749</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1413168</v>
+        <v>1412190</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3955198585718768</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3788670046761088</v>
+        <v>0.3778994252161022</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4131007134362895</v>
+        <v>0.4128149582706974</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>897</v>
@@ -3827,19 +3827,19 @@
         <v>975331</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>920792</v>
+        <v>920729</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1031338</v>
+        <v>1033760</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2748849246635042</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2595137325452733</v>
+        <v>0.2594960210137995</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2906696996668385</v>
+        <v>0.2913523089260178</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2166</v>
@@ -3848,19 +3848,19 @@
         <v>2328357</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2246749</v>
+        <v>2243941</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2410021</v>
+        <v>2409105</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3341009209936892</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3223906991849818</v>
+        <v>0.3219878032610818</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3458189537972025</v>
+        <v>0.3456875352765427</v>
       </c>
     </row>
     <row r="23">
@@ -3877,19 +3877,19 @@
         <v>2067854</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2007712</v>
+        <v>2008690</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2124821</v>
+        <v>2128131</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6044801414281232</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5868992865637103</v>
+        <v>0.5871850417293025</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6211329953238911</v>
+        <v>0.6221005747838978</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2391</v>
@@ -3898,19 +3898,19 @@
         <v>2572812</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2516805</v>
+        <v>2514383</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2627351</v>
+        <v>2627414</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7251150753364958</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7093303003331618</v>
+        <v>0.7086476910739822</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7404862674547268</v>
+        <v>0.7405039789862005</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4326</v>
@@ -3919,19 +3919,19 @@
         <v>4640667</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4559003</v>
+        <v>4559919</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4722275</v>
+        <v>4725083</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6658990790063108</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6541810462027975</v>
+        <v>0.6543124647234573</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6776093008150182</v>
+        <v>0.6780121967389182</v>
       </c>
     </row>
     <row r="24">
@@ -4265,19 +4265,19 @@
         <v>108408</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>89229</v>
+        <v>90554</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>127117</v>
+        <v>128379</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.252645609627701</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2079494639607381</v>
+        <v>0.2110365701329916</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2962457666692822</v>
+        <v>0.2991881312274373</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>66</v>
@@ -4286,19 +4286,19 @@
         <v>66481</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>52948</v>
+        <v>52871</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>83128</v>
+        <v>82285</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1915587278636338</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1525649543137255</v>
+        <v>0.152341563712863</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2395243931878362</v>
+        <v>0.2370940660560968</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>165</v>
@@ -4307,19 +4307,19 @@
         <v>174890</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>152738</v>
+        <v>152774</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>196623</v>
+        <v>199752</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2253305464903778</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1967897110315636</v>
+        <v>0.1968365269771323</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.25333259313503</v>
+        <v>0.2573633123689619</v>
       </c>
     </row>
     <row r="5">
@@ -4336,19 +4336,19 @@
         <v>320684</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>301975</v>
+        <v>300713</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>339863</v>
+        <v>338538</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.747354390372299</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7037542333307178</v>
+        <v>0.7008118687725629</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.792050536039262</v>
+        <v>0.7889634298670086</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>266</v>
@@ -4357,19 +4357,19 @@
         <v>280574</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>263927</v>
+        <v>264770</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>294107</v>
+        <v>294184</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8084412721363662</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7604756068121644</v>
+        <v>0.7629059339439032</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8474350456862748</v>
+        <v>0.8476584362871374</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>563</v>
@@ -4378,19 +4378,19 @@
         <v>601257</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>579524</v>
+        <v>576395</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>623409</v>
+        <v>623373</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7746694535096222</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.74666740686497</v>
+        <v>0.742636687631038</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8032102889684364</v>
+        <v>0.8031634730228677</v>
       </c>
     </row>
     <row r="6">
@@ -4482,19 +4482,19 @@
         <v>105649</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>88612</v>
+        <v>87856</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>123674</v>
+        <v>124554</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2808657725054561</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.235574009439942</v>
+        <v>0.2335635905646791</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3287845433490176</v>
+        <v>0.3311242666832158</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>96</v>
@@ -4503,19 +4503,19 @@
         <v>100057</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>83100</v>
+        <v>84368</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>119002</v>
+        <v>118055</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2695157552551089</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2238414024860295</v>
+        <v>0.2272557174456074</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.320548864096951</v>
+        <v>0.3179970115516705</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>193</v>
@@ -4524,19 +4524,19 @@
         <v>205706</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>180096</v>
+        <v>179628</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>231162</v>
+        <v>231114</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2752280400836411</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2409625440907145</v>
+        <v>0.240336898835529</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3092882231219613</v>
+        <v>0.3092240985621671</v>
       </c>
     </row>
     <row r="8">
@@ -4553,19 +4553,19 @@
         <v>270506</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>252481</v>
+        <v>251601</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>287543</v>
+        <v>288299</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7191342274945439</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6712154566509824</v>
+        <v>0.668875733316784</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.764425990560058</v>
+        <v>0.7664364094353204</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>255</v>
@@ -4574,19 +4574,19 @@
         <v>271189</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>252244</v>
+        <v>253191</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>288146</v>
+        <v>286878</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.730484244744891</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6794511359030492</v>
+        <v>0.6820029884483294</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7761585975139706</v>
+        <v>0.7727442825543926</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>511</v>
@@ -4595,19 +4595,19 @@
         <v>541695</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>516239</v>
+        <v>516287</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>567305</v>
+        <v>567773</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7247719599163589</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6907117768780388</v>
+        <v>0.6907759014378327</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7590374559092856</v>
+        <v>0.7596631011644711</v>
       </c>
     </row>
     <row r="9">
@@ -4699,19 +4699,19 @@
         <v>216738</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>195509</v>
+        <v>194680</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>241080</v>
+        <v>238298</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4152749949392132</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3745991113517295</v>
+        <v>0.3730107120341308</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4619156526077492</v>
+        <v>0.4565838907845644</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>50</v>
@@ -4720,19 +4720,19 @@
         <v>52503</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>40797</v>
+        <v>40510</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>64868</v>
+        <v>65491</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3160504541895794</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2455828523731535</v>
+        <v>0.243852956685835</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.390481387650606</v>
+        <v>0.3942303382033486</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>250</v>
@@ -4741,19 +4741,19 @@
         <v>269241</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>242212</v>
+        <v>242985</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>295381</v>
+        <v>294429</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3913177498352012</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3520343185852907</v>
+        <v>0.3531568257736463</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4293106030228583</v>
+        <v>0.4279272979774009</v>
       </c>
     </row>
     <row r="11">
@@ -4770,19 +4770,19 @@
         <v>305176</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>280834</v>
+        <v>283616</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>326405</v>
+        <v>327234</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5847250050607868</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5380843473922506</v>
+        <v>0.5434161092154357</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6254008886482705</v>
+        <v>0.6269892879658694</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>103</v>
@@ -4791,19 +4791,19 @@
         <v>113620</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>101255</v>
+        <v>100632</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>125326</v>
+        <v>125613</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6839495458104206</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.609518612349394</v>
+        <v>0.6057696617966514</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7544171476268465</v>
+        <v>0.756147043314165</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>405</v>
@@ -4812,19 +4812,19 @@
         <v>418795</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>392655</v>
+        <v>393607</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>445824</v>
+        <v>445051</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6086822501647988</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5706893969771417</v>
+        <v>0.5720727020225989</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6479656814147093</v>
+        <v>0.6468431742263537</v>
       </c>
     </row>
     <row r="12">
@@ -4916,19 +4916,19 @@
         <v>437536</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>404367</v>
+        <v>404755</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>473949</v>
+        <v>469040</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.380872400628566</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3519988303050228</v>
+        <v>0.3523369124528459</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4125691988493382</v>
+        <v>0.4082960669603675</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>309</v>
@@ -4937,19 +4937,19 @@
         <v>315813</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>289507</v>
+        <v>289066</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>346614</v>
+        <v>343116</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3828282515085361</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3509398756996372</v>
+        <v>0.3504047773732816</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.420164889285481</v>
+        <v>0.4159246684925921</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>722</v>
@@ -4958,19 +4958,19 @@
         <v>753350</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>713200</v>
+        <v>710413</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>797933</v>
+        <v>796286</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3816898793738395</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3613478819837608</v>
+        <v>0.3599356416179261</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4042782455162499</v>
+        <v>0.4034438101427137</v>
       </c>
     </row>
     <row r="14">
@@ -4987,19 +4987,19 @@
         <v>711238</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>674825</v>
+        <v>679734</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>744407</v>
+        <v>744019</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.619127599371434</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5874308011506619</v>
+        <v>0.5917039330396325</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6480011696949772</v>
+        <v>0.6476630875471545</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>488</v>
@@ -5008,19 +5008,19 @@
         <v>509135</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>478334</v>
+        <v>481832</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>535441</v>
+        <v>535882</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6171717484914639</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5798351107145191</v>
+        <v>0.584075331507408</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6490601243003628</v>
+        <v>0.6495952226267183</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1177</v>
@@ -5029,19 +5029,19 @@
         <v>1220372</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1175789</v>
+        <v>1177436</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1260522</v>
+        <v>1263309</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6183101206261605</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5957217544837501</v>
+        <v>0.5965561898572864</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6386521180162392</v>
+        <v>0.6400643583820743</v>
       </c>
     </row>
     <row r="15">
@@ -5133,19 +5133,19 @@
         <v>243251</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>219881</v>
+        <v>218560</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>268753</v>
+        <v>268428</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.391893848258514</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3542429373225107</v>
+        <v>0.3521147678677179</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4329797306650987</v>
+        <v>0.4324564947490595</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>209</v>
@@ -5154,19 +5154,19 @@
         <v>216639</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>189230</v>
+        <v>191726</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>243323</v>
+        <v>243342</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2938849452658234</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2567031756336922</v>
+        <v>0.2600892786695627</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3300836909969355</v>
+        <v>0.330109686223991</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>433</v>
@@ -5175,19 +5175,19 @@
         <v>459890</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>427217</v>
+        <v>424951</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>497271</v>
+        <v>498229</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3386868038754338</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3146248703616779</v>
+        <v>0.3129559923982656</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.366216353700339</v>
+        <v>0.3669221158429029</v>
       </c>
     </row>
     <row r="17">
@@ -5204,19 +5204,19 @@
         <v>377455</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>351953</v>
+        <v>352278</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>400825</v>
+        <v>402146</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6081061517414861</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5670202693349014</v>
+        <v>0.5675435052509405</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6457570626774891</v>
+        <v>0.647885232132282</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>489</v>
@@ -5225,19 +5225,19 @@
         <v>520516</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>493832</v>
+        <v>493813</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>547925</v>
+        <v>545429</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7061150547341766</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6699163090030645</v>
+        <v>0.669890313776009</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7432968243663078</v>
+        <v>0.7399107213304372</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>862</v>
@@ -5246,19 +5246,19 @@
         <v>897971</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>860590</v>
+        <v>859632</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>930644</v>
+        <v>932910</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6613131961245663</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6337836462996609</v>
+        <v>0.6330778841570971</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6853751296383219</v>
+        <v>0.6870440076017345</v>
       </c>
     </row>
     <row r="18">
@@ -5350,19 +5350,19 @@
         <v>73041</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>59858</v>
+        <v>58127</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>89275</v>
+        <v>87939</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2543680841827056</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2084591882640443</v>
+        <v>0.2024322533641012</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.310904091175185</v>
+        <v>0.3062515344062552</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>165</v>
@@ -5371,19 +5371,19 @@
         <v>172983</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>150807</v>
+        <v>150104</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>199385</v>
+        <v>199864</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1602239201990698</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1396841019443275</v>
+        <v>0.1390330144166103</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1846793020768566</v>
+        <v>0.1851224080286145</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>235</v>
@@ -5392,19 +5392,19 @@
         <v>246023</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>216471</v>
+        <v>217494</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>276082</v>
+        <v>273705</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1800026188020847</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1583810416071695</v>
+        <v>0.1591292070590765</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2019954738598078</v>
+        <v>0.2002557985620373</v>
       </c>
     </row>
     <row r="20">
@@ -5421,19 +5421,19 @@
         <v>214104</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>197870</v>
+        <v>199206</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>227287</v>
+        <v>229018</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7456319158172944</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6890959088248149</v>
+        <v>0.6937484655937448</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7915408117359557</v>
+        <v>0.7975677466358988</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>825</v>
@@ -5442,19 +5442,19 @@
         <v>906647</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>880245</v>
+        <v>879766</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>928823</v>
+        <v>929526</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8397760798009303</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8153206979231433</v>
+        <v>0.8148775919713855</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8603158980556725</v>
+        <v>0.8609669855833897</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1027</v>
@@ -5463,19 +5463,19 @@
         <v>1120752</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1090693</v>
+        <v>1093070</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1150304</v>
+        <v>1149281</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8199973811979153</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7980045261401923</v>
+        <v>0.7997442014379631</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8416189583928309</v>
+        <v>0.8408707929409236</v>
       </c>
     </row>
     <row r="21">
@@ -5567,19 +5567,19 @@
         <v>1184622</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1133065</v>
+        <v>1124826</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1245985</v>
+        <v>1240377</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3500879580058155</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.334851335427406</v>
+        <v>0.3324164024390929</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3682222606398837</v>
+        <v>0.3665649075614631</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>895</v>
@@ -5588,19 +5588,19 @@
         <v>924476</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>874998</v>
+        <v>873021</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>976806</v>
+        <v>978282</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2621766460679241</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2481450066659294</v>
+        <v>0.2475842957654579</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.277017171693671</v>
+        <v>0.2774357670648301</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1998</v>
@@ -5609,19 +5609,19 @@
         <v>2109099</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2033460</v>
+        <v>2025674</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2186560</v>
+        <v>2181452</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3052266441192326</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2942802862519262</v>
+        <v>0.2931534630269644</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3164366959861227</v>
+        <v>0.3156975696954951</v>
       </c>
     </row>
     <row r="23">
@@ -5638,19 +5638,19 @@
         <v>2199163</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2137800</v>
+        <v>2143408</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2250720</v>
+        <v>2258959</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6499120419941844</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6317777393601168</v>
+        <v>0.6334350924385369</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6651486645725946</v>
+        <v>0.667583597560907</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2426</v>
@@ -5659,19 +5659,19 @@
         <v>2601681</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2549351</v>
+        <v>2547875</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2651159</v>
+        <v>2653136</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7378233539320759</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.722982828306329</v>
+        <v>0.72256423293517</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7518549933340706</v>
+        <v>0.7524157042345421</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4545</v>
@@ -5680,19 +5680,19 @@
         <v>4800844</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4723383</v>
+        <v>4728491</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4876483</v>
+        <v>4884269</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6947733558807675</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6835633040138771</v>
+        <v>0.684302430304505</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7057197137480737</v>
+        <v>0.7068465369730357</v>
       </c>
     </row>
     <row r="24">
